--- a/CH-191Column Splitting.xlsx
+++ b/CH-191Column Splitting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7F0CA8-A45E-4DB8-A06C-343EAF3340F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2128179A-F90C-433D-8A7D-7FEAF03F0736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="25">
   <si>
     <t>Question</t>
   </si>
@@ -135,13 +135,16 @@
   </si>
   <si>
     <t>https://www.linkedin.com/in/omid-motamedisedeh-74aba166/recent-activity/all/</t>
+  </si>
+  <si>
+    <t>Single Function</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +194,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Mono"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -318,10 +328,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -381,8 +392,12 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1109,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F2B991B-5D21-4A9E-AFF4-5B82948FF4AC}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1394,7 +1409,10 @@
       <c r="M16" s="18"/>
       <c r="N16" s="18"/>
     </row>
-    <row r="17" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B17" s="23" t="s">
+        <v>24</v>
+      </c>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
       <c r="J17" s="18"/>
@@ -1403,39 +1421,81 @@
       <c r="M17" s="18"/>
       <c r="N17" s="17"/>
     </row>
-    <row r="18" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C18" s="13" t="str" cm="1">
+        <f t="array" ref="C18:E22">_xlfn.DROP(_xlfn.REDUCE("",B3:B7,_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.VSTACK(_xlpm.a,_xlfn.REGEXEXTRACT(_xlpm.v,"([0-9A-Z]+)(\.|_|\-)([0-9A-Z\._]+)",2)))),1)</f>
+        <v>ABC</v>
+      </c>
+      <c r="D18" s="19" t="str">
+        <v>-</v>
+      </c>
+      <c r="E18" s="14" t="str">
+        <v>12.3</v>
+      </c>
       <c r="J18" s="18"/>
       <c r="K18" s="18"/>
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
       <c r="N18" s="18"/>
     </row>
-    <row r="19" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C19" s="13" t="str">
+        <v>MN</v>
+      </c>
+      <c r="D19" s="19" t="str">
+        <v>_</v>
+      </c>
+      <c r="E19" s="14" t="str">
+        <v>X_Z</v>
+      </c>
       <c r="J19" s="18"/>
       <c r="K19" s="18"/>
       <c r="L19" s="18"/>
       <c r="M19" s="18"/>
       <c r="N19" s="18"/>
     </row>
-    <row r="20" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C20" s="13" t="str">
+        <v>QW</v>
+      </c>
+      <c r="D20" s="19" t="str">
+        <v>.</v>
+      </c>
+      <c r="E20" s="14" t="str">
+        <v>_ER</v>
+      </c>
       <c r="J20" s="18"/>
       <c r="K20" s="18"/>
       <c r="L20" s="18"/>
       <c r="M20" s="18"/>
       <c r="N20" s="18"/>
     </row>
-    <row r="21" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C21" s="13" t="str">
+        <v>T</v>
+      </c>
+      <c r="D21" s="19" t="str">
+        <v>-</v>
+      </c>
+      <c r="E21" s="14" t="str">
+        <v>1.2_Z</v>
+      </c>
       <c r="J21" s="18"/>
       <c r="K21" s="18"/>
       <c r="L21" s="18"/>
       <c r="M21" s="18"/>
       <c r="N21" s="18"/>
     </row>
-    <row r="22" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C22" s="15" t="str">
+        <v>98</v>
+      </c>
+      <c r="D22" s="20" t="str">
+        <v>-</v>
+      </c>
+      <c r="E22" s="16" t="str">
+        <v>X.Y</v>
+      </c>
       <c r="K22" s="18"/>
       <c r="L22" s="18"/>
       <c r="M22" s="18"/>

--- a/CH-191Column Splitting.xlsx
+++ b/CH-191Column Splitting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2128179A-F90C-433D-8A7D-7FEAF03F0736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C16534A-2214-4682-B64C-15E68719D47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
   <si>
     <t>Question</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>Single Function</t>
+  </si>
+  <si>
+    <t>Integrated Heading</t>
   </si>
 </sst>
 </file>
@@ -393,7 +396,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1122,10 +1125,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F2B991B-5D21-4A9E-AFF4-5B82948FF4AC}">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1501,6 +1504,78 @@
       <c r="M22" s="18"/>
       <c r="N22" s="18"/>
     </row>
+    <row r="25" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B25" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C26" s="11" t="str" cm="1">
+        <f t="array" ref="C26:E31">_xlfn.REDUCE(D2:F2,B3:B7,_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.VSTACK(_xlpm.a,_xlfn.REGEXEXTRACT(_xlpm.v,"([0-9A-Z]+)(\.|_|\-)([0-9A-Z\._]+)",2))))</f>
+        <v>Part 1</v>
+      </c>
+      <c r="D26" s="11" t="str">
+        <v>Separator</v>
+      </c>
+      <c r="E26" s="11" t="str">
+        <v>Part 2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C27" s="13" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="D27" s="19" t="str">
+        <v>-</v>
+      </c>
+      <c r="E27" s="14" t="str">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C28" s="13" t="str">
+        <v>MN</v>
+      </c>
+      <c r="D28" s="19" t="str">
+        <v>_</v>
+      </c>
+      <c r="E28" s="14" t="str">
+        <v>X_Z</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C29" s="13" t="str">
+        <v>QW</v>
+      </c>
+      <c r="D29" s="19" t="str">
+        <v>.</v>
+      </c>
+      <c r="E29" s="14" t="str">
+        <v>_ER</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C30" s="13" t="str">
+        <v>T</v>
+      </c>
+      <c r="D30" s="19" t="str">
+        <v>-</v>
+      </c>
+      <c r="E30" s="14" t="str">
+        <v>1.2_Z</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C31" s="15" t="str">
+        <v>98</v>
+      </c>
+      <c r="D31" s="20" t="str">
+        <v>-</v>
+      </c>
+      <c r="E31" s="16" t="str">
+        <v>X.Y</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:F1"/>
